--- a/views/assets/product_template.xlsx
+++ b/views/assets/product_template.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Product" sheetId="1" r:id="rId1"/>
-    <sheet name="Specfication" sheetId="2" r:id="rId2"/>
+    <sheet name="Specification" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -389,7 +389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -426,7 +426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
